--- a/Main Code/Lecturer Free.xlsx
+++ b/Main Code/Lecturer Free.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/PycharmProjects/TestFile/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/PycharmProjects/AutoTimetable/Main Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF775E40-2F7A-AA47-A148-CB9D1A434B6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED35520B-5958-444A-8D63-F29A4ED66ED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{934DC09E-EAA3-ED4F-ADE2-E01368BB710E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{934DC09E-EAA3-ED4F-ADE2-E01368BB710E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
   <si>
     <t>Time</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>Ruth Frew  </t>
-  </si>
-  <si>
-    <t>\n</t>
   </si>
   <si>
     <t>Day + Time</t>
@@ -665,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2FCE3D-DD21-764F-8EFD-69E41491AD36}">
   <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:U67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -831,64 +828,84 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(0,1)</f>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <f t="shared" ref="C3:U16" ca="1" si="0">RANDBETWEEN(0,1)</f>
+        <v>0</v>
       </c>
       <c r="D3">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F3">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="K3">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="M3">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="N3">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="O3">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="P3">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="S3">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="T3">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="V3" s="1"/>
     </row>
@@ -897,64 +914,84 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <f t="shared" ref="B4:Q35" ca="1" si="1">RANDBETWEEN(0,1)</f>
         <v>0</v>
       </c>
       <c r="C4">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="E4">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="H4">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="K4">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="M4">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="O4">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="P4">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="R4">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="S4">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="T4">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="V4" s="1"/>
     </row>
@@ -963,63 +1000,83 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C5">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D5">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="G5">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="H5">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="J5">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="L5">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="M5">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="O5">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="P5">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="Q5">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="S5">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="U5">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="V5" s="1"/>
@@ -1029,63 +1086,83 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="D6">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E6">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G6">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="J6">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="K6">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="L6">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="O6">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="P6">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="S6">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="T6">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="U6">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="V6" s="1"/>
@@ -1095,64 +1172,84 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="E7">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="G7">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="H7">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="J7">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="L7">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="N7">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="P7">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="Q7">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="R7">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="V7" s="1"/>
     </row>
@@ -1161,64 +1258,84 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="C8">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F8">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="H8">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="I8">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="J8">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="L8">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="M8">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="N8">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="P8">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="V8" s="1"/>
     </row>
@@ -1227,64 +1344,84 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="D9">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G9">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="H9">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="I9">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="L9">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="M9">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="O9">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="T9">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="V9" s="1"/>
     </row>
@@ -1293,63 +1430,83 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="E10">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="F10">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="G10">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="H10">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="J10">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K10">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="L10">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="N10">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="O10">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="Q10">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="R10">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="S10">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="T10">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="U10">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="V10" s="1"/>
@@ -1359,64 +1516,84 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="D11">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E11">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="G11">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="I11">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="J11">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K11">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="M11">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="S11">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="V11" s="1"/>
     </row>
@@ -1425,63 +1602,83 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="D12">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F12">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="G12">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="K12">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="L12">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="M12">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="P12">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="R12">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="S12">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="T12">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="U12">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="V12" s="1"/>
@@ -1491,63 +1688,83 @@
         <v>11</v>
       </c>
       <c r="B13">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F13">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="G13">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="H13">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="I13">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="L13">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="Q13">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="S13">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="U13">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="V13" s="1"/>
@@ -1557,63 +1774,83 @@
         <v>12</v>
       </c>
       <c r="B14">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F14">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="H14">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="I14">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="K14">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="L14">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="M14">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="N14">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="P14">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="T14">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="U14">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="V14" s="1"/>
@@ -1623,63 +1860,83 @@
         <v>13</v>
       </c>
       <c r="B15">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="C15">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="E15">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="F15">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="L15">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="M15">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="N15">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="O15">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="P15">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="R15">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="S15">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="U15">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="V15" s="1"/>
@@ -1689,64 +1946,84 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C16">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="D16">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E16">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="G16">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="I16">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="J16">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <f t="shared" ref="K16:U67" ca="1" si="2">RANDBETWEEN(0,1)</f>
+        <v>1</v>
       </c>
       <c r="L16">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="M16">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="N16">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="P16">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="R16">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="T16">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="V16" s="1"/>
     </row>
@@ -1755,64 +2032,84 @@
         <v>15</v>
       </c>
       <c r="B17">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="D17">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E17">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F17">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="I17">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="K17">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L17">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="M17">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="O17">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q17">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="R17">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="S17">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="V17" s="1"/>
     </row>
@@ -1821,64 +2118,84 @@
         <v>16</v>
       </c>
       <c r="B18">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="C18">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="D18">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F18">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="I18">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="L18">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="N18">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="P18">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="R18">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="T18">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="V18" s="1"/>
     </row>
@@ -1887,63 +2204,83 @@
         <v>17</v>
       </c>
       <c r="B19">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="C19">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="G19">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="I19">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="K19">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="N19">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="S19">
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="T19">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="U19">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="V19" s="1"/>
@@ -1953,63 +2290,83 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C20">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="D20">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F20">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="I20">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="K20">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="L20">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="M20">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="O20">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="P20">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="Q20">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="U20">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="V20" s="1"/>
@@ -2019,64 +2376,84 @@
         <v>19</v>
       </c>
       <c r="B21">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="J21">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K21">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="M21">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="N21">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="R21">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="S21">
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="V21" s="1"/>
     </row>
@@ -2085,63 +2462,83 @@
         <v>20</v>
       </c>
       <c r="B22">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="C22">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="E22">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="I22">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="L22">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="O22">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q22">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="R22">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="S22">
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="T22">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="U22">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="V22" s="1"/>
@@ -2151,64 +2548,84 @@
         <v>21</v>
       </c>
       <c r="B23">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="C23">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="D23">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="G23">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H23">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I23">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="J23">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="L23">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="V23" s="1"/>
     </row>
@@ -2217,63 +2634,83 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="C24">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="D24">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E24">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="H24">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I24">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="J24">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K24">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L24">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="N24">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="O24">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="Q24">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="S24">
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="T24">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="U24">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="V24" s="1"/>
@@ -2283,64 +2720,84 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="C25">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="E25">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F25">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="G25">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="I25">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="J25">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K25">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L25">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="S25">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="T25">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="V25" s="1"/>
     </row>
@@ -2349,64 +2806,84 @@
         <v>24</v>
       </c>
       <c r="B26">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="E26">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F26">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="G26">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="H26">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="J26">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="T26">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="V26" s="1"/>
     </row>
@@ -2415,63 +2892,83 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E27">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="H27">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I27">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="M27">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="Q27">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="U27">
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="V27" s="1"/>
@@ -2481,64 +2978,84 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="H28">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="J28">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="M28">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q28">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="S28">
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="T28">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="U28">
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="V28" s="1"/>
     </row>
@@ -2547,64 +3064,84 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="G29">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H29">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I29">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="J29">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="O29">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q29">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="R29">
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="S29">
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="U29">
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="V29" s="1"/>
     </row>
@@ -2613,63 +3150,83 @@
         <v>28</v>
       </c>
       <c r="B30">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="F30">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="O30">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="S30">
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="T30">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="U30">
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="V30" s="1"/>
@@ -2679,63 +3236,83 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="C31">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="D31">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="F31">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="I31">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="K31">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="L31">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="M31">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="O31">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q31">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="R31">
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="S31">
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="T31">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="U31">
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="V31" s="1"/>
@@ -2745,64 +3322,84 @@
         <v>30</v>
       </c>
       <c r="B32">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="D32">
+        <f t="shared" ref="D32:S67" ca="1" si="3">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
       <c r="E32">
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="F32">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="J32">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K32">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="L32">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="O32">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="P32">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="R32">
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="S32">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="V32" s="1"/>
     </row>
@@ -2811,63 +3408,83 @@
         <v>31</v>
       </c>
       <c r="B33">
+        <f t="shared" ref="B33:Q67" ca="1" si="4">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="I33">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="J33">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="K33">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="M33">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="O33">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="P33">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="R33">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="S33">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="T33">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="U33">
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="V33" s="1"/>
@@ -2877,63 +3494,83 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="C34">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D34">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="G34">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="I34">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="K34">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="N34">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="Q34">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="S34">
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="U34">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="V34" s="1"/>
@@ -2943,64 +3580,84 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="C35">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="E35">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="F35">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="H35">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="I35">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="L35">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="M35">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="N35">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="P35">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="Q35">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="R35">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="V35" s="1"/>
     </row>
@@ -3009,64 +3666,84 @@
         <v>34</v>
       </c>
       <c r="B36">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="C36">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="G36">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="I36">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J36">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K36">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="P36">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="R36">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="S36">
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="T36">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="V36" s="1"/>
     </row>
@@ -3075,64 +3752,84 @@
         <v>35</v>
       </c>
       <c r="B37">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="E37">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="F37">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="J37">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="K37">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="M37">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="O37">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="R37">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="U37">
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="V37" s="1"/>
     </row>
@@ -3141,63 +3838,83 @@
         <v>36</v>
       </c>
       <c r="B38">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="G38">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="O38">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="Q38">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="R38">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="T38">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="U38">
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="V38" s="1"/>
@@ -3207,64 +3924,84 @@
         <v>37</v>
       </c>
       <c r="B39">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="E39">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="I39">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="K39">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="M39">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="O39">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="P39">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="Q39">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="S39">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="T39">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="U39">
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="V39" s="1"/>
     </row>
@@ -3273,63 +4010,83 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="K40">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="L40">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="M40">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="P40">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="Q40">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="R40">
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="S40">
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="T40">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="U40">
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="V40" s="1"/>
@@ -3339,64 +4096,84 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="E41">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="F41">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="H41">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="K41">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="M41">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="O41">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="P41">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="Q41">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="R41">
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="S41">
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="T41">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="V41" s="1"/>
     </row>
@@ -3405,63 +4182,83 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="C42">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="D42">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="G42">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="I42">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J42">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K42">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="M42">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="O42">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="P42">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="R42">
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="S42">
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="T42">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="U42">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="V42" s="1"/>
@@ -3471,64 +4268,84 @@
         <v>41</v>
       </c>
       <c r="B43">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="E43">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="G43">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="H43">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="J43">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K43">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="L43">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="N43">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="P43">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="S43">
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="V43" s="1"/>
     </row>
@@ -3537,63 +4354,83 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="C44">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D44">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="E44">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="H44">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="I44">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J44">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K44">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="O44">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="S44">
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="T44">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="U44">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="V44" s="1"/>
@@ -3603,64 +4440,84 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="C45">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="I45">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="K45">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="N45">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="O45">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="Q45">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="R45">
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="T45">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="V45" s="1"/>
     </row>
@@ -3669,64 +4526,84 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="E46">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="F46">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="H46">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="J46">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K46">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="L46">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="M46">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="Q46">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="R46">
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="S46">
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="V46" s="1"/>
     </row>
@@ -3735,63 +4612,83 @@
         <v>45</v>
       </c>
       <c r="B47">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="C47">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="E47">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="F47">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="G47">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="K47">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="L47">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="M47">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="N47">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="O47">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="R47">
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="S47">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="U47">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="V47" s="1"/>
@@ -3801,63 +4698,83 @@
         <v>46</v>
       </c>
       <c r="B48">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="C48">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="G48">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="H48">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="I48">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="J48">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K48">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="M48">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="Q48">
+        <f t="shared" ref="Q48:U67" ca="1" si="5">RANDBETWEEN(0,1)</f>
         <v>0</v>
       </c>
       <c r="R48">
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="S48">
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="U48">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="V48" s="1"/>
@@ -3867,64 +4784,84 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <f t="shared" ref="B49:Q67" ca="1" si="6">RANDBETWEEN(0,1)</f>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="E49">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="F49">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="G49">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="I49">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="K49">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="N49">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="P49">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="R49">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="S49">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="T49">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="U49">
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="V49" s="1"/>
     </row>
@@ -3933,63 +4870,83 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="C50">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="D50">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="F50">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="H50">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="I50">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="J50">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K50">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="L50">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="N50">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="O50">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="S50">
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="U50">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="V50" s="1"/>
@@ -3999,64 +4956,84 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="E51">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="F51">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="H51">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="K51">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="L51">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="O51">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="S51">
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="T51">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="V51" s="1"/>
     </row>
@@ -4065,63 +5042,83 @@
         <v>50</v>
       </c>
       <c r="B52">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="C52">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="D52">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="E52">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="H52">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="I52">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="N52">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="R52">
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="S52">
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="T52">
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="U52">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="V52" s="1"/>
@@ -4131,63 +5128,83 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="C53">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="D53">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="F53">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="I53">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="K53">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="L53">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="O53">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="P53">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="Q53">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="R53">
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="S53">
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="U53">
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="V53" s="1"/>
@@ -4197,64 +5214,84 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="C54">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="E54">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="G54">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="L54">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="Q54">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="R54">
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="T54">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="U54">
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="V54" s="1"/>
     </row>
@@ -4263,64 +5300,84 @@
         <v>53</v>
       </c>
       <c r="B55">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="C55">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="K55">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="N55">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="P55">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="R55">
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="S55">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="T55">
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="U55">
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="V55" s="1"/>
     </row>
@@ -4329,64 +5386,84 @@
         <v>54</v>
       </c>
       <c r="B56">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="C56">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="D56">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="E56">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="F56">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="H56">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="J56">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="L56">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="M56">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="O56">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="P56">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="Q56">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="R56">
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="S56">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="T56">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="U56">
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="V56" s="1"/>
     </row>
@@ -4395,63 +5472,83 @@
         <v>55</v>
       </c>
       <c r="B57">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="E57">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="F57">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="K57">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="L57">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="N57">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="P57">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="R57">
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="S57">
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="U57">
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="V57" s="1"/>
@@ -4461,63 +5558,83 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="C58">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="F58">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G58">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="H58">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="I58">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="J58">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="L58">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="O58">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="P58">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="Q58">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="R58">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="S58">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="T58">
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="U58">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="V58" s="1"/>
@@ -4527,64 +5644,84 @@
         <v>57</v>
       </c>
       <c r="B59">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="D59">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="H59">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="I59">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="J59">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="L59">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="M59">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="O59">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="P59">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="Q59">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="R59">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="S59">
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="T59">
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="V59" s="1"/>
     </row>
@@ -4593,64 +5730,84 @@
         <v>58</v>
       </c>
       <c r="B60">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="E60">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="F60">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G60">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="I60">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="O60">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="R60">
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="T60">
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="U60">
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="V60" s="1"/>
     </row>
@@ -4659,63 +5816,83 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="E61">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="G61">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="H61">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="I61">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="O61">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="R61">
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="S61">
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="T61">
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="U61">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="V61" s="1"/>
@@ -4725,64 +5902,84 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="D62">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="E62">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="F62">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="J62">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K62">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="O62">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="R62">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="T62">
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="U62">
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="V62" s="1"/>
     </row>
@@ -4791,64 +5988,84 @@
         <v>61</v>
       </c>
       <c r="B63">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="G63">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="I63">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="L63">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="O63">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="P63">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="R63">
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="S63">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="T63">
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="U63">
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="V63" s="1"/>
     </row>
@@ -4857,63 +6074,83 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="G64">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="I64">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="K64">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="M64">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="N64">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="O64">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="P64">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="Q64">
+        <f t="shared" ref="Q64:U67" ca="1" si="7">RANDBETWEEN(0,1)</f>
         <v>0</v>
       </c>
       <c r="R64">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="T64">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="U64">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="V64" s="1"/>
@@ -4923,64 +6160,84 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <f t="shared" ref="B65:Q67" ca="1" si="8">RANDBETWEEN(0,1)</f>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="E65">
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="G65">
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="K65">
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="L65">
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="M65">
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="N65">
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="O65">
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="Q65">
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="R65">
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="S65">
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="T65">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="U65">
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="V65" s="1"/>
     </row>
@@ -4989,63 +6246,83 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="C66">
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="D66">
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="E66">
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="G66">
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="H66">
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="J66">
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="K66">
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L66">
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="P66">
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="R66">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="S66">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="T66">
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="U66">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="V66" s="1"/>
@@ -5055,63 +6332,83 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
       </c>
       <c r="C67">
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="D67">
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="E67">
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="G67">
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="I67">
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
       </c>
       <c r="L67">
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="N67">
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="P67">
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="R67">
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="S67">
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="T67">
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="U67">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="V67" s="1"/>
@@ -5125,11 +6422,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B873B9-E03B-6A48-BC41-C865E378357E}">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B1">
@@ -5195,13 +6517,11 @@
       <c r="V1">
         <v>21</v>
       </c>
-      <c r="W1" s="1">
-        <v>22</v>
-      </c>
+      <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -5266,13 +6586,11 @@
       <c r="V2" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5337,13 +6655,11 @@
       <c r="V3">
         <v>0</v>
       </c>
-      <c r="W3" s="1">
-        <v>0</v>
-      </c>
+      <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -5408,13 +6724,11 @@
       <c r="V4">
         <v>1</v>
       </c>
-      <c r="W4" s="1">
-        <v>0</v>
-      </c>
+      <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -5479,13 +6793,11 @@
       <c r="V5">
         <v>1</v>
       </c>
-      <c r="W5" s="1">
-        <v>0</v>
-      </c>
+      <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -5550,13 +6862,11 @@
       <c r="V6">
         <v>1</v>
       </c>
-      <c r="W6" s="1">
-        <v>0</v>
-      </c>
+      <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -5621,13 +6931,11 @@
       <c r="V7">
         <v>0</v>
       </c>
-      <c r="W7" s="1">
-        <v>0</v>
-      </c>
+      <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -5692,13 +7000,11 @@
       <c r="V8">
         <v>0</v>
       </c>
-      <c r="W8" s="1">
-        <v>0</v>
-      </c>
+      <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -5763,13 +7069,11 @@
       <c r="V9">
         <v>1</v>
       </c>
-      <c r="W9" s="1">
-        <v>0</v>
-      </c>
+      <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -5834,13 +7138,11 @@
       <c r="V10">
         <v>0</v>
       </c>
-      <c r="W10" s="1">
-        <v>0</v>
-      </c>
+      <c r="W10" s="1"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -5905,13 +7207,11 @@
       <c r="V11">
         <v>0</v>
       </c>
-      <c r="W11" s="1">
-        <v>0</v>
-      </c>
+      <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -5976,13 +7276,11 @@
       <c r="V12">
         <v>0</v>
       </c>
-      <c r="W12" s="1">
-        <v>0</v>
-      </c>
+      <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -6047,13 +7345,11 @@
       <c r="V13">
         <v>0</v>
       </c>
-      <c r="W13" s="1">
-        <v>0</v>
-      </c>
+      <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -6118,13 +7414,11 @@
       <c r="V14">
         <v>0</v>
       </c>
-      <c r="W14" s="1">
-        <v>0</v>
-      </c>
+      <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>13</v>
@@ -6189,13 +7483,11 @@
       <c r="V15">
         <v>0</v>
       </c>
-      <c r="W15" s="1">
-        <v>0</v>
-      </c>
+      <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -6260,13 +7552,11 @@
       <c r="V16">
         <v>0</v>
       </c>
-      <c r="W16" s="1">
-        <v>0</v>
-      </c>
+      <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -6331,13 +7621,11 @@
       <c r="V17">
         <v>0</v>
       </c>
-      <c r="W17" s="1">
-        <v>0</v>
-      </c>
+      <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -6402,13 +7690,11 @@
       <c r="V18">
         <v>0</v>
       </c>
-      <c r="W18" s="1">
-        <v>0</v>
-      </c>
+      <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -6473,13 +7759,11 @@
       <c r="V19">
         <v>0</v>
       </c>
-      <c r="W19" s="1">
-        <v>0</v>
-      </c>
+      <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -6544,13 +7828,11 @@
       <c r="V20">
         <v>0</v>
       </c>
-      <c r="W20" s="1">
-        <v>0</v>
-      </c>
+      <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21">
         <v>19</v>
@@ -6615,13 +7897,11 @@
       <c r="V21">
         <v>0</v>
       </c>
-      <c r="W21" s="1">
-        <v>0</v>
-      </c>
+      <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -6686,13 +7966,11 @@
       <c r="V22">
         <v>0</v>
       </c>
-      <c r="W22" s="1">
-        <v>0</v>
-      </c>
+      <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23">
         <v>21</v>
@@ -6757,13 +8035,11 @@
       <c r="V23">
         <v>0</v>
       </c>
-      <c r="W23" s="1">
-        <v>0</v>
-      </c>
+      <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24">
         <v>22</v>
@@ -6828,13 +8104,11 @@
       <c r="V24">
         <v>0</v>
       </c>
-      <c r="W24" s="1">
-        <v>0</v>
-      </c>
+      <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25">
         <v>23</v>
@@ -6899,13 +8173,11 @@
       <c r="V25">
         <v>0</v>
       </c>
-      <c r="W25" s="1">
-        <v>0</v>
-      </c>
+      <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26">
         <v>24</v>
@@ -6970,13 +8242,11 @@
       <c r="V26">
         <v>0</v>
       </c>
-      <c r="W26" s="1">
-        <v>0</v>
-      </c>
+      <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27">
         <v>25</v>
@@ -7041,13 +8311,11 @@
       <c r="V27">
         <v>1</v>
       </c>
-      <c r="W27" s="1">
-        <v>0</v>
-      </c>
+      <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28">
         <v>26</v>
@@ -7112,13 +8380,11 @@
       <c r="V28">
         <v>1</v>
       </c>
-      <c r="W28" s="1">
-        <v>0</v>
-      </c>
+      <c r="W28" s="1"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29">
         <v>27</v>
@@ -7183,13 +8449,11 @@
       <c r="V29">
         <v>1</v>
       </c>
-      <c r="W29" s="1">
-        <v>0</v>
-      </c>
+      <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30">
         <v>28</v>
@@ -7254,13 +8518,11 @@
       <c r="V30">
         <v>1</v>
       </c>
-      <c r="W30" s="1">
-        <v>0</v>
-      </c>
+      <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31">
         <v>29</v>
@@ -7325,13 +8587,11 @@
       <c r="V31">
         <v>1</v>
       </c>
-      <c r="W31" s="1">
-        <v>0</v>
-      </c>
+      <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32">
         <v>30</v>
@@ -7396,13 +8656,11 @@
       <c r="V32">
         <v>0</v>
       </c>
-      <c r="W32" s="1">
-        <v>0</v>
-      </c>
+      <c r="W32" s="1"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33">
         <v>31</v>
@@ -7467,13 +8725,11 @@
       <c r="V33">
         <v>1</v>
       </c>
-      <c r="W33" s="1">
-        <v>0</v>
-      </c>
+      <c r="W33" s="1"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34">
         <v>32</v>
@@ -7538,13 +8794,11 @@
       <c r="V34">
         <v>0</v>
       </c>
-      <c r="W34" s="1">
-        <v>0</v>
-      </c>
+      <c r="W34" s="1"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35">
         <v>33</v>
@@ -7609,13 +8863,11 @@
       <c r="V35">
         <v>1</v>
       </c>
-      <c r="W35" s="1">
-        <v>0</v>
-      </c>
+      <c r="W35" s="1"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36">
         <v>34</v>
@@ -7680,13 +8932,11 @@
       <c r="V36">
         <v>0</v>
       </c>
-      <c r="W36" s="1">
-        <v>0</v>
-      </c>
+      <c r="W36" s="1"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37">
         <v>35</v>
@@ -7751,13 +9001,11 @@
       <c r="V37">
         <v>1</v>
       </c>
-      <c r="W37" s="1">
-        <v>0</v>
-      </c>
+      <c r="W37" s="1"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38">
         <v>36</v>
@@ -7822,13 +9070,11 @@
       <c r="V38">
         <v>1</v>
       </c>
-      <c r="W38" s="1">
-        <v>0</v>
-      </c>
+      <c r="W38" s="1"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39">
         <v>37</v>
@@ -7893,13 +9139,11 @@
       <c r="V39">
         <v>1</v>
       </c>
-      <c r="W39" s="1">
-        <v>0</v>
-      </c>
+      <c r="W39" s="1"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40">
         <v>38</v>
@@ -7964,13 +9208,11 @@
       <c r="V40">
         <v>1</v>
       </c>
-      <c r="W40" s="1">
-        <v>0</v>
-      </c>
+      <c r="W40" s="1"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41">
         <v>39</v>
@@ -8035,13 +9277,11 @@
       <c r="V41">
         <v>0</v>
       </c>
-      <c r="W41" s="1">
-        <v>0</v>
-      </c>
+      <c r="W41" s="1"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42">
         <v>40</v>
@@ -8106,13 +9346,11 @@
       <c r="V42">
         <v>0</v>
       </c>
-      <c r="W42" s="1">
-        <v>0</v>
-      </c>
+      <c r="W42" s="1"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B43">
         <v>41</v>
@@ -8177,13 +9415,11 @@
       <c r="V43">
         <v>0</v>
       </c>
-      <c r="W43" s="1">
-        <v>0</v>
-      </c>
+      <c r="W43" s="1"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B44">
         <v>42</v>
@@ -8248,13 +9484,11 @@
       <c r="V44">
         <v>0</v>
       </c>
-      <c r="W44" s="1">
-        <v>0</v>
-      </c>
+      <c r="W44" s="1"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B45">
         <v>43</v>
@@ -8319,13 +9553,11 @@
       <c r="V45">
         <v>0</v>
       </c>
-      <c r="W45" s="1">
-        <v>0</v>
-      </c>
+      <c r="W45" s="1"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B46">
         <v>44</v>
@@ -8390,13 +9622,11 @@
       <c r="V46">
         <v>0</v>
       </c>
-      <c r="W46" s="1">
-        <v>0</v>
-      </c>
+      <c r="W46" s="1"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B47">
         <v>45</v>
@@ -8461,13 +9691,11 @@
       <c r="V47">
         <v>0</v>
       </c>
-      <c r="W47" s="1">
-        <v>0</v>
-      </c>
+      <c r="W47" s="1"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B48">
         <v>46</v>
@@ -8532,13 +9760,11 @@
       <c r="V48">
         <v>0</v>
       </c>
-      <c r="W48" s="1">
-        <v>0</v>
-      </c>
+      <c r="W48" s="1"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B49">
         <v>47</v>
@@ -8603,13 +9829,11 @@
       <c r="V49">
         <v>1</v>
       </c>
-      <c r="W49" s="1">
-        <v>0</v>
-      </c>
+      <c r="W49" s="1"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B50">
         <v>48</v>
@@ -8674,13 +9898,11 @@
       <c r="V50">
         <v>0</v>
       </c>
-      <c r="W50" s="1">
-        <v>0</v>
-      </c>
+      <c r="W50" s="1"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B51">
         <v>49</v>
@@ -8745,13 +9967,11 @@
       <c r="V51">
         <v>0</v>
       </c>
-      <c r="W51" s="1">
-        <v>0</v>
-      </c>
+      <c r="W51" s="1"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B52">
         <v>50</v>
@@ -8816,13 +10036,11 @@
       <c r="V52">
         <v>0</v>
       </c>
-      <c r="W52" s="1">
-        <v>0</v>
-      </c>
+      <c r="W52" s="1"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B53">
         <v>51</v>
@@ -8887,13 +10105,11 @@
       <c r="V53">
         <v>1</v>
       </c>
-      <c r="W53" s="1">
-        <v>0</v>
-      </c>
+      <c r="W53" s="1"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B54">
         <v>52</v>
@@ -8958,13 +10174,11 @@
       <c r="V54">
         <v>1</v>
       </c>
-      <c r="W54" s="1">
-        <v>0</v>
-      </c>
+      <c r="W54" s="1"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B55">
         <v>53</v>
@@ -9029,13 +10243,11 @@
       <c r="V55">
         <v>0</v>
       </c>
-      <c r="W55" s="1">
-        <v>0</v>
-      </c>
+      <c r="W55" s="1"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B56">
         <v>54</v>
@@ -9100,13 +10312,11 @@
       <c r="V56">
         <v>0</v>
       </c>
-      <c r="W56" s="1">
-        <v>0</v>
-      </c>
+      <c r="W56" s="1"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B57">
         <v>55</v>
@@ -9171,13 +10381,11 @@
       <c r="V57">
         <v>1</v>
       </c>
-      <c r="W57" s="1">
-        <v>0</v>
-      </c>
+      <c r="W57" s="1"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B58">
         <v>56</v>
@@ -9242,13 +10450,11 @@
       <c r="V58">
         <v>0</v>
       </c>
-      <c r="W58" s="1">
-        <v>0</v>
-      </c>
+      <c r="W58" s="1"/>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B59">
         <v>57</v>
@@ -9313,13 +10519,11 @@
       <c r="V59">
         <v>0</v>
       </c>
-      <c r="W59" s="1">
-        <v>0</v>
-      </c>
+      <c r="W59" s="1"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B60">
         <v>58</v>
@@ -9384,13 +10588,11 @@
       <c r="V60">
         <v>0</v>
       </c>
-      <c r="W60" s="1">
-        <v>0</v>
-      </c>
+      <c r="W60" s="1"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B61">
         <v>59</v>
@@ -9455,13 +10657,11 @@
       <c r="V61">
         <v>0</v>
       </c>
-      <c r="W61" s="1">
-        <v>0</v>
-      </c>
+      <c r="W61" s="1"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B62">
         <v>60</v>
@@ -9526,13 +10726,11 @@
       <c r="V62">
         <v>0</v>
       </c>
-      <c r="W62" s="1">
-        <v>0</v>
-      </c>
+      <c r="W62" s="1"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B63">
         <v>61</v>
@@ -9597,13 +10795,11 @@
       <c r="V63">
         <v>0</v>
       </c>
-      <c r="W63" s="1">
-        <v>0</v>
-      </c>
+      <c r="W63" s="1"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B64">
         <v>62</v>
@@ -9668,13 +10864,11 @@
       <c r="V64">
         <v>0</v>
       </c>
-      <c r="W64" s="1">
-        <v>0</v>
-      </c>
+      <c r="W64" s="1"/>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B65">
         <v>63</v>
@@ -9739,13 +10933,11 @@
       <c r="V65">
         <v>0</v>
       </c>
-      <c r="W65" s="1">
-        <v>0</v>
-      </c>
+      <c r="W65" s="1"/>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B66">
         <v>64</v>
@@ -9810,13 +11002,11 @@
       <c r="V66">
         <v>0</v>
       </c>
-      <c r="W66" s="1">
-        <v>0</v>
-      </c>
+      <c r="W66" s="1"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B67">
         <v>65</v>
@@ -9881,9 +11071,7 @@
       <c r="V67">
         <v>0</v>
       </c>
-      <c r="W67" s="1">
-        <v>0</v>
-      </c>
+      <c r="W67" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Main Code/Lecturer Free.xlsx
+++ b/Main Code/Lecturer Free.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/PycharmProjects/AutoTimetable/Main Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B7B069-717D-DE43-8E10-0892252E7592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B2A4D8-1DCE-5045-AB8C-058188047B86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{934DC09E-EAA3-ED4F-ADE2-E01368BB710E}"/>
   </bookViews>
@@ -664,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2FCE3D-DD21-764F-8EFD-69E41491AD36}">
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S57" sqref="S57"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -695,1396 +695,1375 @@
     <col min="21" max="21" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="R1">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="S1">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="T1">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="U1">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" s="1"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3" s="1"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4" s="1"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5" s="1"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6" s="1"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="V7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-      <c r="V8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>1</v>
-      </c>
-      <c r="V9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
-      <c r="V10" s="1"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
-      <c r="V11" s="1"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-      <c r="V12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="V13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
-      <c r="V14" s="1"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>1</v>
-      </c>
-      <c r="V15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <v>1</v>
-      </c>
-      <c r="V16" s="1"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>1</v>
-      </c>
-      <c r="V17" s="1"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="V18" s="1"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="V19" s="1"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-      <c r="V20" s="1"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="V21" s="1"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>20</v>
-      </c>
       <c r="B22">
         <v>1</v>
       </c>
@@ -2145,11 +2124,10 @@
       <c r="U22">
         <v>1</v>
       </c>
-      <c r="V22" s="1"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2211,11 +2189,10 @@
       <c r="U23">
         <v>1</v>
       </c>
-      <c r="V23" s="1"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2277,11 +2254,10 @@
       <c r="U24">
         <v>1</v>
       </c>
-      <c r="V24" s="1"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2343,11 +2319,10 @@
       <c r="U25">
         <v>1</v>
       </c>
-      <c r="V25" s="1"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2409,11 +2384,10 @@
       <c r="U26">
         <v>1</v>
       </c>
-      <c r="V26" s="1"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2475,11 +2449,10 @@
       <c r="U27">
         <v>1</v>
       </c>
-      <c r="V27" s="1"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2541,11 +2514,10 @@
       <c r="U28">
         <v>1</v>
       </c>
-      <c r="V28" s="1"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2607,11 +2579,10 @@
       <c r="U29">
         <v>1</v>
       </c>
-      <c r="V29" s="1"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2673,11 +2644,10 @@
       <c r="U30">
         <v>1</v>
       </c>
-      <c r="V30" s="1"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2739,11 +2709,10 @@
       <c r="U31">
         <v>1</v>
       </c>
-      <c r="V31" s="1"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2805,11 +2774,10 @@
       <c r="U32">
         <v>1</v>
       </c>
-      <c r="V32" s="1"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2871,11 +2839,10 @@
       <c r="U33">
         <v>1</v>
       </c>
-      <c r="V33" s="1"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2937,11 +2904,10 @@
       <c r="U34">
         <v>1</v>
       </c>
-      <c r="V34" s="1"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3003,11 +2969,10 @@
       <c r="U35">
         <v>1</v>
       </c>
-      <c r="V35" s="1"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3069,11 +3034,10 @@
       <c r="U36">
         <v>1</v>
       </c>
-      <c r="V36" s="1"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3135,11 +3099,10 @@
       <c r="U37">
         <v>1</v>
       </c>
-      <c r="V37" s="1"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3201,11 +3164,10 @@
       <c r="U38">
         <v>1</v>
       </c>
-      <c r="V38" s="1"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3267,11 +3229,10 @@
       <c r="U39">
         <v>1</v>
       </c>
-      <c r="V39" s="1"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3333,11 +3294,10 @@
       <c r="U40">
         <v>1</v>
       </c>
-      <c r="V40" s="1"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -3399,11 +3359,10 @@
       <c r="U41">
         <v>1</v>
       </c>
-      <c r="V41" s="1"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -3465,11 +3424,10 @@
       <c r="U42">
         <v>1</v>
       </c>
-      <c r="V42" s="1"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3531,11 +3489,10 @@
       <c r="U43">
         <v>1</v>
       </c>
-      <c r="V43" s="1"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -3597,11 +3554,10 @@
       <c r="U44">
         <v>1</v>
       </c>
-      <c r="V44" s="1"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -3663,11 +3619,10 @@
       <c r="U45">
         <v>1</v>
       </c>
-      <c r="V45" s="1"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -3729,11 +3684,10 @@
       <c r="U46">
         <v>1</v>
       </c>
-      <c r="V46" s="1"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -3795,11 +3749,10 @@
       <c r="U47">
         <v>1</v>
       </c>
-      <c r="V47" s="1"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3861,11 +3814,10 @@
       <c r="U48">
         <v>1</v>
       </c>
-      <c r="V48" s="1"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3927,11 +3879,10 @@
       <c r="U49">
         <v>1</v>
       </c>
-      <c r="V49" s="1"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -3993,11 +3944,10 @@
       <c r="U50">
         <v>1</v>
       </c>
-      <c r="V50" s="1"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -4059,11 +4009,10 @@
       <c r="U51">
         <v>1</v>
       </c>
-      <c r="V51" s="1"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -4125,11 +4074,10 @@
       <c r="U52">
         <v>1</v>
       </c>
-      <c r="V52" s="1"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -4191,11 +4139,10 @@
       <c r="U53">
         <v>1</v>
       </c>
-      <c r="V53" s="1"/>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -4257,11 +4204,10 @@
       <c r="U54">
         <v>1</v>
       </c>
-      <c r="V54" s="1"/>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4323,11 +4269,10 @@
       <c r="U55">
         <v>1</v>
       </c>
-      <c r="V55" s="1"/>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -4389,11 +4334,10 @@
       <c r="U56">
         <v>1</v>
       </c>
-      <c r="V56" s="1"/>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -4455,11 +4399,10 @@
       <c r="U57">
         <v>1</v>
       </c>
-      <c r="V57" s="1"/>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -4521,11 +4464,10 @@
       <c r="U58">
         <v>1</v>
       </c>
-      <c r="V58" s="1"/>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -4587,11 +4529,10 @@
       <c r="U59">
         <v>1</v>
       </c>
-      <c r="V59" s="1"/>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -4653,11 +4594,10 @@
       <c r="U60">
         <v>1</v>
       </c>
-      <c r="V60" s="1"/>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -4719,11 +4659,10 @@
       <c r="U61">
         <v>1</v>
       </c>
-      <c r="V61" s="1"/>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -4785,11 +4724,10 @@
       <c r="U62">
         <v>1</v>
       </c>
-      <c r="V62" s="1"/>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -4851,11 +4789,10 @@
       <c r="U63">
         <v>1</v>
       </c>
-      <c r="V63" s="1"/>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -4917,11 +4854,10 @@
       <c r="U64">
         <v>1</v>
       </c>
-      <c r="V64" s="1"/>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -4983,11 +4919,10 @@
       <c r="U65">
         <v>1</v>
       </c>
-      <c r="V65" s="1"/>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -5049,73 +4984,6 @@
       <c r="U66">
         <v>1</v>
       </c>
-      <c r="V66" s="1"/>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67">
-        <v>1</v>
-      </c>
-      <c r="L67">
-        <v>1</v>
-      </c>
-      <c r="M67">
-        <v>1</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67">
-        <v>1</v>
-      </c>
-      <c r="P67">
-        <v>1</v>
-      </c>
-      <c r="Q67">
-        <v>1</v>
-      </c>
-      <c r="R67">
-        <v>1</v>
-      </c>
-      <c r="S67">
-        <v>1</v>
-      </c>
-      <c r="T67">
-        <v>1</v>
-      </c>
-      <c r="U67">
-        <v>1</v>
-      </c>
-      <c r="V67" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Main Code/Lecturer Free.xlsx
+++ b/Main Code/Lecturer Free.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/PycharmProjects/AutoTimetable/Main Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B2A4D8-1DCE-5045-AB8C-058188047B86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B85F14-4194-E54E-8DE3-A26B41FBE884}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{934DC09E-EAA3-ED4F-ADE2-E01368BB710E}"/>
   </bookViews>
@@ -666,7 +666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2FCE3D-DD21-764F-8EFD-69E41491AD36}">
   <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
